--- a/medicine/Psychotrope/Usine_des_cafés_Patin/Usine_des_cafés_Patin.xlsx
+++ b/medicine/Psychotrope/Usine_des_cafés_Patin/Usine_des_cafés_Patin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Usine_des_caf%C3%A9s_Patin</t>
+          <t>Usine_des_cafés_Patin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancienne usine des cafés Patin est un ancien bâtiment industriel situé dans le Paris 17e[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancienne usine des cafés Patin est un ancien bâtiment industriel situé dans le Paris 17e.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Usine_des_caf%C3%A9s_Patin</t>
+          <t>Usine_des_cafés_Patin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ancienne usine et de l’hôtel particulier est situé au 8, rue de Lévisà Paris. Actuellement, plusieurs boutiques sont présentes sur la rue dont un magasin de café.
 Sur la façade, on peut encore apercevoir la mention "CAFÉS E. PATIN, MON FÉE EN 1840"
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Usine_des_caf%C3%A9s_Patin</t>
+          <t>Usine_des_cafés_Patin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si la maison Patin est fondée en 1840, l’usine de torréfaction de la rue de Lévis a été construite entre 1885 et 1889 par Étienne Gillet, accompagnée d’un magasin de vente[2] ; ces derniers avaient d'autres boutiques de café dans Paris situés rue Montmartre ou rue Tronchet.
-La société des Cafés Patins, fondée en 1976, a cessé en 1987[3] ; l’usine de torréfaction a été transformée en appartements dans les années 1980 et la boutique reprise par les Comptoirs Richard.
-L'édifice est inscrit au titre des monuments historiques par arrêté du 13 septembre 2021[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la maison Patin est fondée en 1840, l’usine de torréfaction de la rue de Lévis a été construite entre 1885 et 1889 par Étienne Gillet, accompagnée d’un magasin de vente ; ces derniers avaient d'autres boutiques de café dans Paris situés rue Montmartre ou rue Tronchet.
+La société des Cafés Patins, fondée en 1976, a cessé en 1987 ; l’usine de torréfaction a été transformée en appartements dans les années 1980 et la boutique reprise par les Comptoirs Richard.
+L'édifice est inscrit au titre des monuments historiques par arrêté du 13 septembre 2021.
 </t>
         </is>
       </c>
